--- a/biology/Botanique/Cornas_(AOC)/Cornas_(AOC).xlsx
+++ b/biology/Botanique/Cornas_(AOC)/Cornas_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cornas[2] [kɔʁnas] est un vin rouge d'appellation d'origine contrôlée produit sur la commune de Cornas, sur la rive droite du Rhône, en face de la ville de Valence.
-Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, dans le département de l'Ardèche, entre les aires de production du saint-joseph au nord et du saint-péray au sud. L'AOC« Cornas » fait partie des « Crus des Côtes du Rhône ».[1]
+Le cornas [kɔʁnas] est un vin rouge d'appellation d'origine contrôlée produit sur la commune de Cornas, sur la rive droite du Rhône, en face de la ville de Valence.
+Il s'agit d'une appellation du vignoble de la vallée du Rhône septentrionale, dans le département de l'Ardèche, entre les aires de production du saint-joseph au nord et du saint-péray au sud. L'AOC« Cornas » fait partie des « Crus des Côtes du Rhône ».
 </t>
         </is>
       </c>
@@ -515,18 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Sur la rive droite du Rhône, le vignoble implanté dès la période romaine, constitue la partie occidentale du territoire des Allobroges.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la rive droite du Rhône, le vignoble implanté dès la période romaine, constitue la partie occidentale du territoire des Allobroges.
 D’après les auteurs de l’antiquité           (Pline et Plutarque), la viticulture dans cette région est présente à l'époque Romaine.
-Moyen Âge
-Les plus anciennes traces écrites de cette culture sur le lieu exact de Cornas remontent au moins au Xe siècle           (An 1000 : mention du don d’une vigne à un chanoine, dans le cartulaire de l’abbaye de Saint-Chaffre du Monastier). La tradition locale veut que Charlemagne en ait bu et l'ait apprécié.[réf. nécessaire]
-Époque moderne
-Les premiers documents attestant une commercialisation de vin remontent à 1643.
-En 1763, le curé du village écrit que les collines sont remplies de vignes et que le vin produit est bien noir. 
-En 1866 on lit dans le Larousse : « Cornas :…cette commune comprend 100 hectares de vignes produisant un vin rouge fort estimé » 
-Époque contemporaine
-En 1938 le décret de l’AOC Cornas est publié au Journal Officiel. 
-Depuis 1956 un marché aux vins se tient au coeur du Village le premier week-end de décembre.
 </t>
         </is>
       </c>
@@ -552,12 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire[3]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La forme la plus ancienne suggérée par les toponymistes est Cornate. Elle trouverait son origine dans le latin cornu (corne) ou dans un thème pré-latin *corn, dérivé de cor (escarpement, hauteur). Le suffixe -ate est d'origine celte[4].
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciennes traces écrites de cette culture sur le lieu exact de Cornas remontent au moins au Xe siècle           (An 1000 : mention du don d’une vigne à un chanoine, dans le cartulaire de l’abbaye de Saint-Chaffre du Monastier). La tradition locale veut que Charlemagne en ait bu et l'ait apprécié.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -583,20 +597,204 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Époque moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers documents attestant une commercialisation de vin remontent à 1643.
+En 1763, le curé du village écrit que les collines sont remplies de vignes et que le vin produit est bien noir. 
+En 1866 on lit dans le Larousse : « Cornas :…cette commune comprend 100 hectares de vignes produisant un vin rouge fort estimé » 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Époque contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1938 le décret de l’AOC Cornas est publié au Journal Officiel. 
+Depuis 1956 un marché aux vins se tient au coeur du Village le premier week-end de décembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme la plus ancienne suggérée par les toponymistes est Cornate. Elle trouverait son origine dans le latin cornu (corne) ou dans un thème pré-latin *corn, dérivé de cor (escarpement, hauteur). Le suffixe -ate est d'origine celte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orographie
-Le vignoble s'étend en amphithéâtre sur les coteaux où la culture se fait sur des terrasses exposées au sud ou au sud-est. L'altitude de plantation varie de 130 à 415 m. 
-Géologie
-Le terroir couvre trois types de terrains bien différenciés :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend en amphithéâtre sur les coteaux où la culture se fait sur des terrasses exposées au sud ou au sud-est. L'altitude de plantation varie de 130 à 415 m. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le terroir couvre trois types de terrains bien différenciés :
 Sur le haut de la commune se trouve un sol acide d’arène mêlé de cailloutis et de granite.
 La partie centrale est composée de hautes terrasses fluviales à galets et de granite.
-Les coteaux du bas ont été formés par des éboulis calcaires.
-Climatologie
-Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses. Il s'appelle alors « le vent du midi » ou « le vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
+Les coteaux du bas ont été formés par des éboulis calcaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terroir viticole bénéficie d'un climat tempéré dont la principale caractéristique est le vent fréquent qui souffle le long du couloir rhodanien. Ce vent, lorsqu'il vient du nord, est baptisé mistral  et a pour effet d'assécher l'air et d'apporter du beau temps et de la fraîcheur en été, mais une impression de froid glacial en hiver. Lorsqu'il provient du sud, il annonce généralement l'arrivée de perturbations orageuses. Il s'appelle alors « le vent du midi » ou « le vent des fous » car, pour certaines personnes, il rend l'atmosphère pénible à supporter, surtout en été.
 Source : (fr) Données de Tournon 1961 à 1990
 À partir de cette latitude, l'influence du climat méditerranéen se fait directement sentir. L'ensoleillement annuel est élevé (environ 2 400 heures à Valence, (estimation de Météo-France). Les étés y sont chauds et secs. La température moyenne du mois de juillet est de 20 °C (Montélimar 23 °C). Les hivers froids sans excès s'inscrivent plutôt dans un climat de type semi-continental dégradé. La température moyenne du mois le plus froid (janvier) est ainsi de 3,5 °C.
 La pluviométrie annuelle est modérée : environ 430 mm. Les pluies sont particulièrement importantes à la fin de l'été (particulièrement en septembre à cause de l'effet cévenol ou orage cévenol qui déverse des trombes d'eau).
@@ -604,59 +802,380 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cornas_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-La commune de Cornas, à 7 km de Valence et 12 km de Tournon est la seule à produire ce vin qui en 1938 devint la première A.O.C. rouge de l’Ardèche.
-Lieux-dits
-Quelques lieux-dits émaillent ce terroir : Chaillot, Reynard, le Coulet, la Côte, Geynale, Patou, les Sept Vaux, le Calvaire, les Mazards.
-Encépagement
-Un seul cépage, la syrah, sert à élaborer ce vin.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commune de Cornas, à 7 km de Valence et 12 km de Tournon est la seule à produire ce vin qui en 1938 devint la première A.O.C. rouge de l’Ardèche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lieux-dits</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques lieux-dits émaillent ce terroir : Chaillot, Reynard, le Coulet, la Côte, Geynale, Patou, les Sept Vaux, le Calvaire, les Mazards.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un seul cépage, la syrah, sert à élaborer ce vin.
 Comparaison de l'encépagement de l'AOC cornas avec les autres appellations locales des côtes-du-rhône septentrionales
 Dans les décrets d'appellation, une division est faite entre les cépages principaux (indiqués par « M »), les variétés supplémentaires (indiquées par « S ») et celles autorisées (indiquées par « (A) »).
-Méthodes culturales
-D'une superficie de 159 hectares, le vignoble produit 5 040 hectolitres (chiffres 2022) pour un rendement plafonné à 40 hl/ha. Le rendement moyen est de 34 hl/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Méthodes culturales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 159 hectares, le vignoble produit 5 040 hectolitres (chiffres 2022) pour un rendement plafonné à 40 hl/ha. Le rendement moyen est de 34 hl/ha.
 La vigne, implantée sur des coteaux abrupts, est conduite sur des échalas (piquets en bois). Les fortes pentes ne permettent pas la mécanisation du vignoble et le travail se fait donc à pied.
-Vinification et élevage
-Les vendanges sont réalisées manuellement et le transport des raisins jusqu'au lieu de vinification doit obligatoirement se faire en grappes entières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges sont réalisées manuellement et le transport des raisins jusqu'au lieu de vinification doit obligatoirement se faire en grappes entières.
 Les méthodes de vinification sont traditionnelles et ancestrales et les élevages peuvent être réalisés en cuves, en amphores ou en futs de chêne, selon le choix du vigneron.
-Terroir et vins
-Un terroir à deux composantes, avec des sols sableux d’arène et des hautes terrasses à galets s’effondrant en des éboulis de calcaire anguleux, fournit avec la seule syrah un beau vin à la robe rouge sombre. Son nez de beaux fruits rouges avec des touches de poivre et de violette évolue au vieillissement vers des arômes de truffe, d’ambre, de réglisse et de fruits cuits. La forme de sa bouche s’assouplit avec les années tout en gardant la belle charpente de sa structure initiale où percent des fragrances d’olives vertes.
-Structure des exploitations
-Les propriétaires sont majoritairement de petits vignerons indépendants. La mécanisation n'étant pas possible les surfaces exploitées sont petites, parfois inférieures à 1 hectare. 
-Type de vins et gastronomie
-Ce vin possède une robe de couleur rouge sombre évoluant de rubis à grenat. Son nez est puissant mais aux arômes fins et veloutés de fruits rouges avec un bouquet de fleurs sauvages et des rémanences de framboise qui évoluent en vieillissant vers des saveurs de sous-bois où domine l’olive verte et les épices.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un terroir à deux composantes, avec des sols sableux d’arène et des hautes terrasses à galets s’effondrant en des éboulis de calcaire anguleux, fournit avec la seule syrah un beau vin à la robe rouge sombre. Son nez de beaux fruits rouges avec des touches de poivre et de violette évolue au vieillissement vers des arômes de truffe, d’ambre, de réglisse et de fruits cuits. La forme de sa bouche s’assouplit avec les années tout en gardant la belle charpente de sa structure initiale où percent des fragrances d’olives vertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les propriétaires sont majoritairement de petits vignerons indépendants. La mécanisation n'étant pas possible les surfaces exploitées sont petites, parfois inférieures à 1 hectare. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin possède une robe de couleur rouge sombre évoluant de rubis à grenat. Son nez est puissant mais aux arômes fins et veloutés de fruits rouges avec un bouquet de fleurs sauvages et des rémanences de framboise qui évoluent en vieillissant vers des saveurs de sous-bois où domine l’olive verte et les épices.
 Son vieillissement, avant consommation, nécessite cinq ans chez le producteur. Il atteint en ce moment-là cette structure vigoureuse et une persistance en bouche qui le caractérisent. Il dégage alors à la dégustation des notes de truffe, d’ambre, de réglisse et de fruits rouges.
 Ce vin est réputé depuis le XIXe siècle pour vieillir en cave entre 18 et 20 ans.
 Il est parfait sur les viandes rouges, le gibier, la poularde en vessie, les grives farcies ou en terrine, les chaussons aux truffes et les fromages.
-Millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Millésimes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Commercialisation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornas_(AOC)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les vins ne peuvent être conditionnés qu'en bouteille en verre. </t>
         </is>
       </c>
